--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\fittrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75BC580-8E45-46B7-BD24-8D0668EB1243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A204AE2-9D4B-4D0B-9336-1969443F0553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="-120" windowWidth="28320" windowHeight="16440" activeTab="1" xr2:uid="{21CF90B6-563A-4AAC-8FBF-94D9E895E0A4}"/>
+    <workbookView xWindow="600" yWindow="-120" windowWidth="28320" windowHeight="16440" activeTab="2" xr2:uid="{21CF90B6-563A-4AAC-8FBF-94D9E895E0A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="209">
   <si>
     <t>Exercícios</t>
   </si>
@@ -996,6 +997,786 @@
         <family val="1"/>
       </rPr>
       <t>4 X 8 - 20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15.5"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>PLANILHA DE TREINO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>SEMANA 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Segunda</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Exercícios</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Séries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vel. C/E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Int.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Técnica</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1a série</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>2a série</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>3a série</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>4a série</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Peso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rep</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Remada baixa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1 + 3 X 8 - 15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1 por 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>40 seg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dropset na última</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Puxada alta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>3 X 3 - 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1 por 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>3 a 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Remada curvada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>3 X 6 - 12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Falha concêntrica</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Crucifixo inverso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>4 X 6 - 12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rosca inclinada 45º</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pico</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rosca direta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Extensão lombar</t>
+    </r>
+  </si>
+  <si>
+    <t>   Falha concêntrica</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Terça</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Supino inclinado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Supino reto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>3 X 3-7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cross over</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Elevação lateral</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>40seg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rest Pause</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Triceps frances</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pirâmide crescente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Triceps pulley corda</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Abdomem maquina</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Quarta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Agachamento livre</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>2 min</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Leg press</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Levantamento terra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>3 X 8 - 15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Avanço</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>3 X 8 - 16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Panturrilha sentada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>4 X 8 - 15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>30 seg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Panturrilha em pé</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>4 X 8 - 20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rest pause</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Quinta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pulley frente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>1 + 3 X 6 - 12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Remada máquina</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Deltoide posterior cabo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rosca Inclinada 45°</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Manguito rotador externo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sexta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Desenvolvimento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Triceps testa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mergulho banco</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Abdomêm infra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sábado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cadeira extensora</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Stiff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Panturrilha em pé uni</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Non stop + Falha</t>
     </r>
   </si>
 </sst>
@@ -1003,7 +1784,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1154,6 +1935,100 @@
       <sz val="7.5"/>
       <name val="Calibri"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.5"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.5"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1370,7 +2245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1402,6 +2277,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1413,9 +2303,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1441,26 +2328,62 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1839,33 +2762,33 @@
       <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="14"/>
+      <c r="K4" s="19"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -1874,11 +2797,11 @@
       <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2138,33 +3061,33 @@
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="13" t="s">
+      <c r="I15" s="19"/>
+      <c r="J15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="14"/>
+      <c r="K15" s="19"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -2173,11 +3096,11 @@
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2437,33 +3360,33 @@
       <c r="R25" s="5"/>
     </row>
     <row r="26" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="13" t="s">
+      <c r="G26" s="19"/>
+      <c r="H26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="13" t="s">
+      <c r="I26" s="19"/>
+      <c r="J26" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="14"/>
+      <c r="K26" s="19"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -2472,11 +3395,11 @@
       <c r="R26" s="5"/>
     </row>
     <row r="27" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="2" t="s">
         <v>20</v>
       </c>
@@ -2707,33 +3630,33 @@
       <c r="R35" s="5"/>
     </row>
     <row r="36" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="13" t="s">
+      <c r="G36" s="19"/>
+      <c r="H36" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="13" t="s">
+      <c r="I36" s="19"/>
+      <c r="J36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="14"/>
+      <c r="K36" s="19"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -2742,11 +3665,11 @@
       <c r="R36" s="5"/>
     </row>
     <row r="37" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="2" t="s">
         <v>20</v>
       </c>
@@ -3006,33 +3929,33 @@
       <c r="R46" s="5"/>
     </row>
     <row r="47" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="13" t="s">
+      <c r="G47" s="19"/>
+      <c r="H47" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="13" t="s">
+      <c r="I47" s="19"/>
+      <c r="J47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K47" s="14"/>
+      <c r="K47" s="19"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -3041,11 +3964,11 @@
       <c r="R47" s="5"/>
     </row>
     <row r="48" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="2" t="s">
         <v>20</v>
       </c>
@@ -3305,33 +4228,33 @@
       <c r="R57" s="5"/>
     </row>
     <row r="58" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="14"/>
-      <c r="H58" s="13" t="s">
+      <c r="G58" s="19"/>
+      <c r="H58" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="13" t="s">
+      <c r="I58" s="19"/>
+      <c r="J58" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K58" s="14"/>
+      <c r="K58" s="19"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
@@ -3340,11 +4263,11 @@
       <c r="R58" s="5"/>
     </row>
     <row r="59" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
       <c r="F59" s="2" t="s">
         <v>20</v>
       </c>
@@ -3631,6 +4554,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -3647,39 +4603,6 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3691,7 +4614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637AD387-0771-43B2-BC91-24C520E60DB1}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
@@ -3701,1371 +4624,1416 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="24" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="24" t="s">
+      <c r="I4" s="30"/>
+      <c r="J4" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="25"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24" t="s">
+      <c r="G14" s="30"/>
+      <c r="H14" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="24" t="s">
+      <c r="I14" s="30"/>
+      <c r="J14" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="25"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="24" t="s">
+      <c r="I24" s="30"/>
+      <c r="J24" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="K24" s="25"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="22"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="24" t="s">
+      <c r="G33" s="30"/>
+      <c r="H33" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="24" t="s">
+      <c r="I33" s="30"/>
+      <c r="J33" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="K33" s="25"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="14">
         <v>0</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="22"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="26"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="24" t="s">
+      <c r="G43" s="30"/>
+      <c r="H43" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I43" s="25"/>
-      <c r="J43" s="24" t="s">
+      <c r="I43" s="30"/>
+      <c r="J43" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="K43" s="25"/>
+      <c r="K43" s="30"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="27" t="s">
+      <c r="I44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J44" s="27" t="s">
+      <c r="J44" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K44" s="27" t="s">
+      <c r="K44" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E49" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="22"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="26"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="24" t="s">
+      <c r="G53" s="30"/>
+      <c r="H53" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="24" t="s">
+      <c r="I53" s="30"/>
+      <c r="J53" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="K53" s="25"/>
+      <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="27" t="s">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="G54" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="H54" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="I54" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J54" s="27" t="s">
+      <c r="J54" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K54" s="27" t="s">
+      <c r="K54" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -5077,7 +6045,1596 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A13:K13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204CC36D-B7A1-4E52-BD4C-901A389B0140}">
+  <dimension ref="A1:S61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="13" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+    </row>
+    <row r="9" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="12" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+    </row>
+    <row r="13" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" s="46"/>
+    </row>
+    <row r="16" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+    </row>
+    <row r="17" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+    </row>
+    <row r="18" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+    </row>
+    <row r="19" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+    </row>
+    <row r="20" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+    </row>
+    <row r="21" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+    </row>
+    <row r="22" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+    </row>
+    <row r="23" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+    </row>
+    <row r="24" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" s="39"/>
+    </row>
+    <row r="25" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+    </row>
+    <row r="27" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+    </row>
+    <row r="28" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+    </row>
+    <row r="29" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+    </row>
+    <row r="30" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+    </row>
+    <row r="31" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+    </row>
+    <row r="32" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+    </row>
+    <row r="33" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="M33" s="39"/>
+    </row>
+    <row r="34" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K34" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="L34" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="M34" s="40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+    </row>
+    <row r="36" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+    </row>
+    <row r="37" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+    </row>
+    <row r="38" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+    </row>
+    <row r="39" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+    </row>
+    <row r="40" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+    </row>
+    <row r="41" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+    </row>
+    <row r="42" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+    </row>
+    <row r="43" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="M43" s="39"/>
+    </row>
+    <row r="44" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J44" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K44" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="L44" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="M44" s="40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+    </row>
+    <row r="46" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+    </row>
+    <row r="47" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+    </row>
+    <row r="48" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+    </row>
+    <row r="49" spans="1:19" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="S49" s="46"/>
+    </row>
+    <row r="50" spans="1:19" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+    </row>
+    <row r="51" spans="1:19" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+    </row>
+    <row r="52" spans="1:19" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+    </row>
+    <row r="53" spans="1:19" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="M53" s="39"/>
+    </row>
+    <row r="54" spans="1:19" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J54" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K54" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="L54" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="M54" s="40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+    </row>
+    <row r="56" spans="1:19" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+    </row>
+    <row r="57" spans="1:19" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+    </row>
+    <row r="58" spans="1:19" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+    </row>
+    <row r="59" spans="1:19" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+    </row>
+    <row r="60" spans="1:19" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="45">
+        <v>0</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+    </row>
+    <row r="61" spans="1:19" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="62">
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A52:M52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A13:M13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -5085,43 +7642,16 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
